--- a/test_data/BlazeUiData.xlsx
+++ b/test_data/BlazeUiData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\blazedemo-ui-automation\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7577C3D-124C-4C26-B88A-C7B6087C4437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08521ACF-4CC9-4EF8-8688-6FCE21A20151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>scenarioName</t>
   </si>
@@ -66,9 +66,6 @@
     <t>rememberMe</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Boston</t>
   </si>
   <si>
@@ -87,16 +84,67 @@
     <t>Karnataka</t>
   </si>
   <si>
+    <t>4356234512344320</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>BookFlightBostonToRome</t>
+  </si>
+  <si>
+    <t>imageLink</t>
+  </si>
+  <si>
+    <t>ClickImageLink</t>
+  </si>
+  <si>
+    <t>BookFlightSanDiegoToNewYork</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Church Street</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>3456087612468760</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>BookFlightWithMissingDetails</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Karlos</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
     <t>visa</t>
   </si>
   <si>
-    <t>4356234512344320</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
-    <t>destination</t>
+    <t>dinersclub</t>
+  </si>
+  <si>
+    <t>amex</t>
   </si>
 </sst>
 </file>
@@ -144,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -153,6 +201,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,21 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
@@ -455,15 +504,15 @@
     <col min="15" max="15" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -501,40 +550,43 @@
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="I2">
         <v>560103</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>11</v>
@@ -543,9 +595,102 @@
         <v>2025</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>10001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>2023</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>20502</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="b">
         <v>1</v>
       </c>
     </row>
